--- a/data/OCLGen_AnalysisOfVerbClasses.xlsx
+++ b/data/OCLGen_AnalysisOfVerbClasses.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabrizio.pastore/SVV-GIT/Chunhui-ocl-automation/software/NLP_COGCOMP_ILLINOIS/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabrizio.pastore/SVV-GIT/OCLGen/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2A09586-9E68-524B-A42F-B010E429F0A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50160" yWindow="820" windowWidth="37860" windowHeight="26300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Verb classes" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="filteredVerbClasses_1" localSheetId="0">'Verb classes'!$A$1:$H$488</definedName>
     <definedName name="filteredVerbsList" localSheetId="3">'List of verbs'!$A$1:$B$4396</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -34,8 +35,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="filteredVerbClasses" type="6" refreshedVersion="0" deleted="1" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="filteredVerbClasses" type="6" refreshedVersion="0" deleted="1" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/fabrizio.pastore/SVV-GIT/Chunhui-ocl-automation/software/NLP_COGCOMP_ILLINOIS/files/filteredVerbClasses.csv" decimal="," thousands=".">
       <textFields count="8">
         <textField/>
@@ -49,7 +50,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="filteredVerbsList" type="6" refreshedVersion="0" deleted="1" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="filteredVerbsList" type="6" refreshedVersion="0" deleted="1" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/fabrizio.pastore/SVV-GIT/Chunhui-ocl-automation/software/NLP_COGCOMP_ILLINOIS/files/filteredVerbsList.csv" decimal="," thousands=".">
       <textFields count="2">
         <textField/>
@@ -16248,7 +16249,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -16310,16 +16311,19 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="filteredVerbClasses_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="filteredVerbClasses_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="filteredVerbsList" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="filteredVerbsList" connectionId="2" xr16:uid="{00000000-0016-0000-0300-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16584,11 +16588,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H488"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="154" zoomScalePageLayoutView="154" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A459" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C470" sqref="C470"/>
     </sheetView>
   </sheetViews>
@@ -29307,7 +29311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -29390,7 +29394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29435,7 +29439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B4396"/>
   <sheetViews>
     <sheetView topLeftCell="A171" workbookViewId="0"/>
